--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -34,87 +34,6 @@
   </si>
   <si>
     <t>File_Url</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>林枣糕</t>
-  </si>
-  <si>
-    <t>37.000</t>
-  </si>
-  <si>
-    <t>已支付</t>
-  </si>
-  <si>
-    <t>www.JDDDDDDDD.com</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>112.000</t>
-  </si>
-  <si>
-    <t>未支付</t>
-  </si>
-  <si>
-    <t>www.taobao.com</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>www.JD购菜.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>年枣糕</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>已发货</t>
-  </si>
-  <si>
-    <t>www.yangwei.com</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>零枣糕</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>www.JDDDDDDDDDD.com</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>刘枣糕</t>
-  </si>
-  <si>
-    <t>55.000</t>
-  </si>
-  <si>
-    <t>./common/raious2.jpg</t>
   </si>
 </sst>
 </file>
@@ -481,7 +400,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -517,126 +436,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,105 @@
   </si>
   <si>
     <t>File_Url</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>林枣糕</t>
+  </si>
+  <si>
+    <t>37.000</t>
+  </si>
+  <si>
+    <t>已支付</t>
+  </si>
+  <si>
+    <t>www.JDDDDDDDD.com</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>www.JD购菜.com</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>年枣糕</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>已发货</t>
+  </si>
+  <si>
+    <t>www.yangwei.com</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>零枣糕</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>www.JDDDDDDDDDD.com</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>刘枣糕</t>
+  </si>
+  <si>
+    <t>55.000</t>
+  </si>
+  <si>
+    <t>./common/raious2.jpg</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>爱吃枣糕</t>
+  </si>
+  <si>
+    <t>3557.000</t>
+  </si>
+  <si>
+    <t>www.insert.com</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>咱不爱吃枣糕</t>
+  </si>
+  <si>
+    <t>1234.000</t>
+  </si>
+  <si>
+    <t>www.in4t.com</t>
   </si>
 </sst>
 </file>
@@ -400,7 +499,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -436,6 +535,146 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -36,54 +36,63 @@
     <t>File_Url</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>www.test.com</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>37.000</t>
+  </si>
+  <si>
+    <t>已支付</t>
+  </si>
+  <si>
+    <t>www.JD购菜.com</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>年枣糕</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>已发货</t>
+  </si>
+  <si>
+    <t>www.yangwei.com</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>林枣糕</t>
-  </si>
-  <si>
-    <t>37.000</t>
-  </si>
-  <si>
-    <t>已支付</t>
-  </si>
-  <si>
-    <t>www.JDDDDDDDD.com</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>www.JD购菜.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>年枣糕</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>已发货</t>
-  </si>
-  <si>
-    <t>www.yangwei.com</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>零枣糕</t>
   </si>
   <si>
@@ -117,7 +126,7 @@
     <t>3557.000</t>
   </si>
   <si>
-    <t>www.insert.com</t>
+    <t>./common/pic01.jpg</t>
   </si>
   <si>
     <t>17</t>
@@ -133,6 +142,12 @@
   </si>
   <si>
     <t>www.in4t.com</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0.000</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -543,137 +558,149 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s"/>
+      <c r="F9" s="1" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -42,112 +42,46 @@
     <t>test</t>
   </si>
   <si>
-    <t>15.000</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>www.test.com</t>
+    <t>1000.000</t>
+  </si>
+  <si>
+    <t>www.ttttt.com</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>raious</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>www.ddd.com</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>tst</t>
+  </si>
+  <si>
+    <t>www.tt.com</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>37.000</t>
-  </si>
-  <si>
-    <t>已支付</t>
-  </si>
-  <si>
-    <t>www.JD购菜.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>年枣糕</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>已发货</t>
-  </si>
-  <si>
-    <t>www.yangwei.com</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>零枣糕</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>www.JDDDDDDDDDD.com</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>刘枣糕</t>
-  </si>
-  <si>
-    <t>55.000</t>
-  </si>
-  <si>
-    <t>./common/raious2.jpg</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>爱吃枣糕</t>
-  </si>
-  <si>
-    <t>3557.000</t>
-  </si>
-  <si>
-    <t>./common/pic01.jpg</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>咱不爱吃枣糕</t>
-  </si>
-  <si>
-    <t>1234.000</t>
-  </si>
-  <si>
-    <t>www.in4t.com</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>0.000</t>
+    <t>已结束</t>
   </si>
 </sst>
 </file>
@@ -514,7 +448,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -555,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -564,143 +498,71 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s"/>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s"/>
-      <c r="F9" s="1" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="order_list" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="order_List" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -39,49 +39,85 @@
     <t>1</t>
   </si>
   <si>
+    <t>raious</t>
+  </si>
+  <si>
+    <t>444.000</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>1000.000</t>
-  </si>
-  <si>
-    <t>www.ttttt.com</t>
+    <t>.././pkg/dao</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>raious</t>
-  </si>
-  <si>
-    <t>22.000</t>
-  </si>
-  <si>
-    <t>www.ddd.com</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>over</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>tst</t>
   </si>
   <si>
-    <t>www.tt.com</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>已结束</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2020-12-07 11:11:05</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2020-12-07 11:11:43</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2020-12-07 13:07:41</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:18:25</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:21:28</t>
   </si>
 </sst>
 </file>
@@ -448,7 +484,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -498,70 +534,270 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -39,85 +39,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>raious</t>
-  </si>
-  <si>
-    <t>444.000</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>.././pkg/dao</t>
+    <t>让爱欧式1岁</t>
+  </si>
+  <si>
+    <t>13.450</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>让爱欧式2岁</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>tst</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>已结束</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2020-12-07 11:11:05</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2020-12-07 11:11:43</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2020-12-07 13:07:41</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2020-12-07 14:18:25</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2020-12-07 14:21:28</t>
+    <t>让爱欧式33岁</t>
   </si>
 </sst>
 </file>
@@ -484,7 +424,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -542,13 +482,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -556,9 +496,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -568,235 +506,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
     <t>ddd</t>
   </si>
   <si>
+    <t>./file/upload_test.png</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -57,7 +60,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>让爱欧式33岁</t>
+    <t>让爱欧式</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4条5</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -482,13 +491,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -500,13 +509,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -515,7 +524,27 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -36,10 +36,28 @@
     <t>File_Url</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>11:34:33:437593172</t>
+  </si>
+  <si>
+    <t>bhs8b</t>
+  </si>
+  <si>
+    <t>444.000</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>.././test</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>让爱欧式1岁</t>
+    <t>1条五</t>
   </si>
   <si>
     <t>13.450</t>
@@ -48,13 +66,10 @@
     <t>ddd</t>
   </si>
   <si>
-    <t>./file/upload_test.png</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>让爱欧式2岁</t>
+    <t>22条五</t>
   </si>
   <si>
     <t>3</t>
@@ -63,10 +78,439 @@
     <t>让爱欧式</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4条5</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6条五</t>
+  </si>
+  <si>
+    <t>./file/yy.jpg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7条五</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2020-12-23 14:29:075or5r5ka1s</t>
+  </si>
+  <si>
+    <t>raious</t>
+  </si>
+  <si>
+    <t>.././pkg/db</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2020-12-24 09:56:17mzbw1ztovt</t>
+  </si>
+  <si>
+    <t>.././pkg/dao</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2020-12-24 09:56:220dwfcej947</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:34p1r1hhamyf</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:34dgbxrny1o9</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:344twm4254ve</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:34xbi7kej8wb</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:34la4mfxa4qh</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:45:34n9jjf8dxtr</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:11r1fnnj64bw</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:19b80fhkqgpw</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:199xxo7d6epl</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:19hwa9afehks</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:19jidbynpi4a</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:19qzosywbyjo</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:47:194qbvsdohri</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:32sq781zkhzw</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:32mfuqci2w1l</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:338kq8wb6dwa</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:33wk460pzwuc</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:33ai9jl5zaho</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:33zvev2xw1r3</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:48:40kdbkeravvx</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:49:45gcqfmpfxj9</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:49:45hbwzl7b67y</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:49:45kqb8pgbojo</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:49:45vnavgbklvq</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:49:45tl4jrdztts</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:50:01n3s34qjlsm</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:50:05iulotqsy5i</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:51:52jtgbpcjhbx</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:55:2423c6y0193l</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:58:01ov41f38s6l</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:04:01okgxux4xbj</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:04:133o3vkoo50c</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:19i7eqe2xh58</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:19k8ka1u8uwi</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:19xdxak55i4u</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:19fi5q23nixc</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:191xoyujul5g</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:19waeg1du88g</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:23txbfe6rkay</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:25bfuq1koj1v</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:27ou8ln6y8ux</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:309ib8eqidu4</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:324z56blzdpb</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>2020-12-24 11:05:349r2w3qkyvk</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2020-12-3qkyvk</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>11:32:53:924171513</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>11:32:53:936742590</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>11:32:53:951990259</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>11:32:53:979254497</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>11:32:53:991249738</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>11:32:54:3168597</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>11:34:20:223601953</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>11:34:20:237202846</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>11:34:20:252167682</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>11:34:20:284000413</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>11:34:20:295872540</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>11:34:20:308149456</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>11:34:25:379398002</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>11:34:27:592204137</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>11:34:29:843627955</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>11:34:34:918818822</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>11:34:37:740498909</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>11:34:39:675765892</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>11:34:41:427766361</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>11:34:50:410392551</t>
   </si>
 </sst>
 </file>
@@ -433,7 +877,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -474,77 +918,1491 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -511,6 +511,36 @@
   </si>
   <si>
     <t>11:34:50:410392551</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>2020-12-24 16:22:34paom8mp7hh</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>16:26:14:898941144</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>16:27:5:135952295</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>16:27:49:752360515</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>9条五wwwwwwwww</t>
   </si>
 </sst>
 </file>
@@ -877,7 +907,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2405,6 +2435,104 @@
         <v>32</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="1" t="s"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -153,13 +153,19 @@
     <t>139</t>
   </si>
   <si>
-    <t>让爱欧式139</t>
+    <t>139ukdfckukdfrk</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>1433333条五</t>
+    <t>332frk</t>
+  </si>
+  <si>
+    <t>鳄鱼不是人</t>
+  </si>
+  <si>
+    <t>大33ugjfjf</t>
   </si>
 </sst>
 </file>
@@ -845,12 +851,14 @@
         <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -36,13 +36,52 @@
     <t>File_Url</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11:34:33:437593172</t>
-  </si>
-  <si>
-    <t>bhs8b</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>年枣糕</t>
+  </si>
+  <si>
+    <t>13.450</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22条五</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>让爱欧式</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6条五</t>
+  </si>
+  <si>
+    <t>./file/yy.jpg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7条五</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>raddddddddddious</t>
   </si>
   <si>
     <t>444.000</t>
@@ -51,121 +90,250 @@
     <t>over</t>
   </si>
   <si>
+    <t>.././pkg/mySQL</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>让爱欧式133岁随俗死</t>
+  </si>
+  <si>
+    <t>222313.450</t>
+  </si>
+  <si>
+    <t>已完结</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>让爱欧式134岁随俗死</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>让爱欧式135岁随俗死</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>让爱欧式136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>让爱欧式137</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>让爱欧式138</t>
+  </si>
+  <si>
+    <t>已完yuyfj结</t>
+  </si>
+  <si>
+    <t>大ujjguuuyugjfjf</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>139ukdfckukdfrk</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>2020-12-29 10:49:5109grdx5xre</t>
+  </si>
+  <si>
+    <t>raious</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>2020-12-29 10:50:11ygg9ybrjzi</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>10:52:57:438734995</t>
+  </si>
+  <si>
+    <t>.././pkg/dao</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>10:53:3:376239962</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>11:15:33:277513429</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>11:20:19:327371546</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>11:21:59:28679655</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>11:25:55:540980704</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>11:28:44:952767870</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>11:31:35:40071846</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>11:31:47:814484241</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>11:32:13:983676516</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>11:40:10:397184647</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>11:51:41:280883797</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>11:52:54:825426935</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>11:54:55:786932421</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>12:0:49:411885526</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>13:27:23:50005380</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>13:29:28:752758090</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>13:33:11:767880870</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>13:33:48:141105511</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>13:49:9:344961795</t>
+  </si>
+  <si>
+    <t>maruhire</t>
+  </si>
+  <si>
+    <t>17.800</t>
+  </si>
+  <si>
+    <t>已修改</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>13:58:1:616305243</t>
+  </si>
+  <si>
     <t>.././test</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1条五</t>
-  </si>
-  <si>
-    <t>13.450</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>22条五</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>让爱欧式</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6条五</t>
-  </si>
-  <si>
-    <t>./file/yy.jpg</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7条五</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>让爱欧式133岁随俗死</t>
-  </si>
-  <si>
-    <t>222313.450</t>
-  </si>
-  <si>
-    <t>已完结</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>让爱欧式134岁随俗死</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>让爱欧式135岁随俗死</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>让爱欧式136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>让爱欧式137</t>
-  </si>
-  <si>
-    <t>22.000</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>让爱欧式138</t>
-  </si>
-  <si>
-    <t>已完yuyfj结</t>
-  </si>
-  <si>
-    <t>大ujjguuuyugjfjf</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>139ukdfckukdfrk</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>332frk</t>
-  </si>
-  <si>
-    <t>鳄鱼不是人</t>
-  </si>
-  <si>
-    <t>大33ugjfjf</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>13:58:52:524716484</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>13:58:52:536450899</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>13:58:52:639767424</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>10:41:56:312145435</t>
   </si>
 </sst>
 </file>
@@ -532,7 +700,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -573,72 +741,72 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="1" t="s"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -646,203 +814,203 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
@@ -851,13 +1019,553 @@
         <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
